--- a/Discharge/Discharge_2019/Discharge_July10.xlsx
+++ b/Discharge/Discharge_2019/Discharge_July10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C99D06-BA6D-414F-8514-8EACD3C8903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292E909F-7AD5-6C46-9A88-201FF6692FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="1240" windowWidth="10000" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="1420" windowWidth="10000" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="12">
   <si>
     <t>X</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>New depth</t>
+  </si>
+  <si>
+    <t>new depth</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1278,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1800,6 +1803,251 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.5</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>C19*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>A36</f>
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <f>SUM(E36:E46)</f>
+        <v>1.2531090000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B37">
+        <v>9.1520000000000004E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:C46" si="5">C20*2.54</f>
+        <v>0.2286</v>
+      </c>
+      <c r="D37">
+        <f>(A37+(A38-A37)/2)</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E37">
+        <f>(D37-D36)*(B37)*C37</f>
+        <v>1.5691103999999991E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.6</v>
+      </c>
+      <c r="B38">
+        <v>0.12584000000000001</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>0.2286</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D46" si="6">(A38+(A39-A38)/2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E46" si="7">(D38-D37)*(B38)*C38</f>
+        <v>1.4383512000000014E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.65</v>
+      </c>
+      <c r="B39">
+        <v>0.12584000000000001</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>0.2286</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>1.4383512000000014E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.7</v>
+      </c>
+      <c r="B40">
+        <v>0.12584000000000001</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>0.2286</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>1.4383511999999982E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.75</v>
+      </c>
+      <c r="B41">
+        <v>0.12012</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>0.2286</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="7"/>
+        <v>1.3729716000000012E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.8</v>
+      </c>
+      <c r="B42">
+        <v>0.12012</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>1.6780763999999977E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.85</v>
+      </c>
+      <c r="B43">
+        <v>9.7239999999999993E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>1.4819376000000013E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.9</v>
+      </c>
+      <c r="B44">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>1.4165580000000014E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.95</v>
+      </c>
+      <c r="B45">
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>6.9738239999999913E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1807,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2375,7 +2623,7 @@
         <v>8.923199999999968E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.4</v>
       </c>
@@ -2395,7 +2643,7 @@
         <v>7.207199999999975E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.45</v>
       </c>
@@ -2415,10 +2663,315 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>A34-A21</f>
         <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>C21*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>A40</f>
+        <v>0.8</v>
+      </c>
+      <c r="F40">
+        <f>SUM(E40:E58)</f>
+        <v>1.9701052800000004E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.85</v>
+      </c>
+      <c r="B41">
+        <v>0.1716</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C53" si="5">C22*2.54</f>
+        <v>0.127</v>
+      </c>
+      <c r="D41">
+        <f>(A41+(A42-A41)/2)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E41">
+        <f>(D41-D40)*(B41)*C41</f>
+        <v>1.6344899999999991E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.9</v>
+      </c>
+      <c r="B42">
+        <v>0.21164000000000002</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D52" si="6">(A42+(A43-A42)/2)</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:E53" si="7">(D42-D41)*(B42)*C42</f>
+        <v>1.6126968000000016E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.95</v>
+      </c>
+      <c r="B43">
+        <v>0.21736</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="7"/>
+        <v>1.9323303999999974E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>1.0896599999999988E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1.05</v>
+      </c>
+      <c r="B45">
+        <v>0.13155999999999998</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>1.1695684000000062E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B46">
+        <v>0.1144</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>1.125</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="7"/>
+        <v>8.7172799999999696E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B47">
+        <v>0.1144</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>0.127</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="6"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="7"/>
+        <v>7.2643999999999736E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1.2</v>
+      </c>
+      <c r="B48">
+        <v>0.10868</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>0.4572</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="6"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="7"/>
+        <v>2.4844248000000131E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1.25</v>
+      </c>
+      <c r="B49">
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>0.254</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="7"/>
+        <v>1.8160999999999939E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1.3</v>
+      </c>
+      <c r="B50">
+        <v>0.14872000000000002</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="6"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="7"/>
+        <v>2.2664928000000126E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1.35</v>
+      </c>
+      <c r="B51">
+        <v>0.13727999999999999</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="6"/>
+        <v>1.375</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="7"/>
+        <v>2.2664927999999918E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1.4</v>
+      </c>
+      <c r="B52">
+        <v>0.12012</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="6"/>
+        <v>1.4249999999999998</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>1.8306287999999937E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1.45</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>(A53+(A54-A53)/2)</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2847,21 +3400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -3045,10 +3583,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132D7AB9-E320-45A8-911A-4D5D915A8FB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF13E5A-B1E3-46B4-AECC-6923F7B39624}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3070,19 +3633,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF13E5A-B1E3-46B4-AECC-6923F7B39624}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132D7AB9-E320-45A8-911A-4D5D915A8FB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>